--- a/CheckDateBC/Bakerloo Line - Graffiti Project_corrected.xlsx
+++ b/CheckDateBC/Bakerloo Line - Graffiti Project_corrected.xlsx
@@ -9362,7 +9362,6 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="74"/>
     <row r="75">
       <c r="A75" s="73" t="inlineStr">
         <is>
